--- a/Testes_Utilizadores.xlsx
+++ b/Testes_Utilizadores.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joana Coutinho\Documents\GitHub\ProjectoIPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76439E1F-9CC4-4BDF-8611-9208A51BE1DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EA1DDBFC-2403-4593-BB43-6EAD4839DC1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{AC120E0E-3964-43BC-A49B-91F251ED8DC5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{AC120E0E-3964-43BC-A49B-91F251ED8DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="27">
   <si>
     <t>Answers</t>
   </si>
@@ -80,12 +81,39 @@
   <si>
     <t>α</t>
   </si>
+  <si>
+    <t>Gostaria de usar este sistema frequentemente</t>
+  </si>
+  <si>
+    <t>O sistema era desnecessariamente complexo</t>
+  </si>
+  <si>
+    <t>O sistema era fácil de usar</t>
+  </si>
+  <si>
+    <t>Precisaria de apoio de alguém especializado para utilizar o sistema</t>
+  </si>
+  <si>
+    <t>As várias funcionalidades do sistema estavam bem integradas</t>
+  </si>
+  <si>
+    <t>Existiam demasiadas inconsistências no sistema</t>
+  </si>
+  <si>
+    <t>A maioria das pessoas conseguiria aprender rapidamente a usar o sistema</t>
+  </si>
+  <si>
+    <t>A utilização do sistema era muito trabalhosa</t>
+  </si>
+  <si>
+    <t>Senti-me confiante a usar o sistema</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +127,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -429,11 +463,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -508,6 +557,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9512A970-3B44-470C-A944-60CB0B11CC1B}">
   <dimension ref="B1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,4 +2168,719 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42080A57-7D68-4CEE-90A5-20E1804D2C69}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30">
+        <v>4</v>
+      </c>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30">
+        <v>5</v>
+      </c>
+      <c r="E3" s="30">
+        <v>5</v>
+      </c>
+      <c r="F3" s="30">
+        <v>5</v>
+      </c>
+      <c r="G3" s="30">
+        <v>1</v>
+      </c>
+      <c r="H3" s="30">
+        <v>5</v>
+      </c>
+      <c r="I3" s="30">
+        <v>2</v>
+      </c>
+      <c r="J3" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="30">
+        <v>3</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30">
+        <v>4</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30">
+        <v>4</v>
+      </c>
+      <c r="G4" s="30">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30">
+        <v>5</v>
+      </c>
+      <c r="I4" s="30">
+        <v>1</v>
+      </c>
+      <c r="J4" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="30">
+        <v>4</v>
+      </c>
+      <c r="C5" s="30">
+        <v>2</v>
+      </c>
+      <c r="D5" s="30">
+        <v>5</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <v>4</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30">
+        <v>4</v>
+      </c>
+      <c r="I5" s="30">
+        <v>1</v>
+      </c>
+      <c r="J5" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30">
+        <v>4</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
+        <v>4</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
+        <v>5</v>
+      </c>
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="30">
+        <v>5</v>
+      </c>
+      <c r="I6" s="30">
+        <v>1</v>
+      </c>
+      <c r="J6" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="30">
+        <v>4</v>
+      </c>
+      <c r="C7" s="30">
+        <v>3</v>
+      </c>
+      <c r="D7" s="30">
+        <v>4</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30">
+        <v>4</v>
+      </c>
+      <c r="G7" s="30">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30">
+        <v>5</v>
+      </c>
+      <c r="I7" s="30">
+        <v>1</v>
+      </c>
+      <c r="J7" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="30">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30">
+        <v>5</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30">
+        <v>4</v>
+      </c>
+      <c r="I8" s="30">
+        <v>1</v>
+      </c>
+      <c r="J8" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="30">
+        <v>4</v>
+      </c>
+      <c r="C9" s="30">
+        <v>3</v>
+      </c>
+      <c r="D9" s="30">
+        <v>4</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
+        <v>3</v>
+      </c>
+      <c r="G9" s="30">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30">
+        <v>5</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="30">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30">
+        <v>2</v>
+      </c>
+      <c r="D10" s="30">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30">
+        <v>2</v>
+      </c>
+      <c r="F10" s="30">
+        <v>4</v>
+      </c>
+      <c r="G10" s="30">
+        <v>2</v>
+      </c>
+      <c r="H10" s="30">
+        <v>4</v>
+      </c>
+      <c r="I10" s="30">
+        <v>2</v>
+      </c>
+      <c r="J10" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30">
+        <v>5</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30">
+        <v>5</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <v>5</v>
+      </c>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30">
+        <v>4</v>
+      </c>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30">
+        <v>5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30">
+        <v>5</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>5</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>5</v>
+      </c>
+      <c r="I12" s="30">
+        <v>1</v>
+      </c>
+      <c r="J12" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30">
+        <v>3</v>
+      </c>
+      <c r="C13" s="30">
+        <v>3</v>
+      </c>
+      <c r="D13" s="30">
+        <v>3</v>
+      </c>
+      <c r="E13" s="30">
+        <v>4</v>
+      </c>
+      <c r="F13" s="30">
+        <v>3</v>
+      </c>
+      <c r="G13" s="30">
+        <v>2</v>
+      </c>
+      <c r="H13" s="30">
+        <v>4</v>
+      </c>
+      <c r="I13" s="30">
+        <v>3</v>
+      </c>
+      <c r="J13" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="30">
+        <v>5</v>
+      </c>
+      <c r="C14" s="30">
+        <v>2</v>
+      </c>
+      <c r="D14" s="30">
+        <v>4</v>
+      </c>
+      <c r="E14" s="30">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30">
+        <v>4</v>
+      </c>
+      <c r="G14" s="30">
+        <v>1</v>
+      </c>
+      <c r="H14" s="30">
+        <v>5</v>
+      </c>
+      <c r="I14" s="30">
+        <v>1</v>
+      </c>
+      <c r="J14" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="30">
+        <v>5</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30">
+        <v>4</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30">
+        <v>5</v>
+      </c>
+      <c r="G15" s="30">
+        <v>2</v>
+      </c>
+      <c r="H15" s="30">
+        <v>5</v>
+      </c>
+      <c r="I15" s="30">
+        <v>1</v>
+      </c>
+      <c r="J15" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="30">
+        <v>4</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30">
+        <v>5</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30">
+        <v>5</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+      <c r="H16" s="30">
+        <v>5</v>
+      </c>
+      <c r="I16" s="30">
+        <v>1</v>
+      </c>
+      <c r="J16" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30">
+        <v>5</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30">
+        <v>5</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+      <c r="F17" s="30">
+        <v>5</v>
+      </c>
+      <c r="G17" s="30">
+        <v>1</v>
+      </c>
+      <c r="H17" s="30">
+        <v>5</v>
+      </c>
+      <c r="I17" s="30">
+        <v>1</v>
+      </c>
+      <c r="J17" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30">
+        <v>4</v>
+      </c>
+      <c r="C18" s="30">
+        <v>1</v>
+      </c>
+      <c r="D18" s="30">
+        <v>5</v>
+      </c>
+      <c r="E18" s="30">
+        <v>2</v>
+      </c>
+      <c r="F18" s="30">
+        <v>4</v>
+      </c>
+      <c r="G18" s="30">
+        <v>1</v>
+      </c>
+      <c r="H18" s="30">
+        <v>5</v>
+      </c>
+      <c r="I18" s="30">
+        <v>1</v>
+      </c>
+      <c r="J18" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4">
+        <f>AVERAGE(B3:B18)</f>
+        <v>4.25</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:J19" si="0">AVERAGE(C3:C18)</f>
+        <v>1.5625</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.625</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>4.125</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1875</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6875</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4">
+        <f>MODE(B3:B18)</f>
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" ref="C20:J20" si="1">MODE(C3:C18)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
+        <f>MEDIAN(B3:B18)</f>
+        <v>4</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:J21" si="2">MEDIAN(C3:C18)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4">
+        <f>_xlfn.QUARTILE.EXC(B3:B18,1)</f>
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" ref="C22:J22" si="3">_xlfn.QUARTILE.EXC(C3:C18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4">
+        <f>_xlfn.QUARTILE.EXC(B3:B18,3)</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" ref="C23:J23" si="4">_xlfn.QUARTILE.EXC(C3:C18,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Testes_Utilizadores.xlsx
+++ b/Testes_Utilizadores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joana Coutinho\Documents\GitHub\ProjectoIPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Rafael Soares\Documents\GitHub\ProjectoIPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EA1DDBFC-2403-4593-BB43-6EAD4839DC1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF30459C-C177-449C-A1BF-1FB22B9B7EBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{AC120E0E-3964-43BC-A49B-91F251ED8DC5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="37">
   <si>
     <t>Answers</t>
   </si>
@@ -107,6 +107,36 @@
   </si>
   <si>
     <t>Senti-me confiante a usar o sistema</t>
+  </si>
+  <si>
+    <t>Desvio padrão</t>
+  </si>
+  <si>
+    <t>Pergunta 1</t>
+  </si>
+  <si>
+    <t>Pergunta 2</t>
+  </si>
+  <si>
+    <t>Pergunta 3</t>
+  </si>
+  <si>
+    <t>Pergunta 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pergunta 5 </t>
+  </si>
+  <si>
+    <t>Pergunta 6</t>
+  </si>
+  <si>
+    <t>Pergunta 7</t>
+  </si>
+  <si>
+    <t>Pergunta 8</t>
+  </si>
+  <si>
+    <t>Pergunta 9</t>
   </si>
 </sst>
 </file>
@@ -142,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -478,11 +508,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -564,6 +605,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,23 +935,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9512A970-3B44-470C-A944-60CB0B11CC1B}">
   <dimension ref="B1:AB99"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -911,24 +965,24 @@
       <c r="AA3" s="19"/>
       <c r="AB3" s="19"/>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="J4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="J5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
-    <row r="6" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
     </row>
-    <row r="7" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
@@ -969,7 +1023,7 @@
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
     </row>
-    <row r="8" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C8" s="14">
         <v>4</v>
       </c>
@@ -977,7 +1031,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>0</v>
@@ -1025,10 +1079,8 @@
         <v>2</v>
       </c>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-    </row>
-    <row r="9" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C9" s="14">
         <v>5</v>
       </c>
@@ -1040,15 +1092,15 @@
       </c>
       <c r="G9" s="22">
         <f>AVERAGE(C8:C22)</f>
-        <v>6.2</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="H9" s="7">
         <f>AVERAGE(D8:D22)</f>
-        <v>32.6</v>
+        <v>34.533333333333331</v>
       </c>
       <c r="I9" s="8">
-        <f>AVERAGE(E8:E22)</f>
-        <v>8.8666666666666671</v>
+        <f>AVERAGE(E8:E21)</f>
+        <v>9.0714285714285712</v>
       </c>
       <c r="K9" s="14">
         <v>4</v>
@@ -1060,16 +1112,16 @@
         <v>9</v>
       </c>
       <c r="O9" s="15">
-        <f>AVERAGE(K8:K22)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(K8:K21)</f>
+        <v>5.3571428571428568</v>
       </c>
       <c r="P9" s="7">
         <f>AVERAGE(L8:L22)</f>
-        <v>58.866666666666667</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="Q9" s="8">
         <f>AVERAGE(M8:M22)</f>
-        <v>17.333333333333332</v>
+        <v>16.066666666666666</v>
       </c>
       <c r="S9" s="14">
         <v>5</v>
@@ -1086,19 +1138,17 @@
       </c>
       <c r="X9" s="18">
         <f>AVERAGE(T8:T22)</f>
-        <v>33.666666666666664</v>
+        <v>29.066666666666666</v>
       </c>
       <c r="Y9" s="16">
         <f>AVERAGE(U8:U22)</f>
-        <v>10.8</v>
+        <v>10.533333333333333</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="14">
         <v>20</v>
@@ -1126,7 +1176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="14">
         <v>6</v>
       </c>
@@ -1164,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C12" s="14">
         <v>6</v>
       </c>
@@ -1172,7 +1222,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>0</v>
@@ -1220,7 +1270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C13" s="14">
         <v>6</v>
       </c>
@@ -1239,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="8">
-        <f>MEDIAN(E8:E22)</f>
+        <f>MEDIAN(E8:E21)</f>
         <v>9</v>
       </c>
       <c r="K13" s="14">
@@ -1252,12 +1302,12 @@
         <v>12</v>
       </c>
       <c r="O13" s="15">
-        <f>MEDIAN(K8:K22)</f>
-        <v>5</v>
+        <f>MEDIAN(K8:K21)</f>
+        <v>5.5</v>
       </c>
       <c r="P13" s="7">
         <f>MEDIAN(L8:L22)</f>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="8">
         <f>MEDIAN(M8:M22)</f>
@@ -1285,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="14">
         <v>6</v>
       </c>
@@ -1293,7 +1343,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K14" s="14">
         <v>5</v>
@@ -1301,8 +1351,8 @@
       <c r="L14" s="14">
         <v>28</v>
       </c>
-      <c r="M14" s="14">
-        <v>14</v>
+      <c r="M14" s="32">
+        <v>13</v>
       </c>
       <c r="S14" s="14">
         <v>6</v>
@@ -1310,11 +1360,11 @@
       <c r="T14" s="14">
         <v>24</v>
       </c>
-      <c r="U14" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="14">
         <v>6</v>
       </c>
@@ -1328,10 +1378,10 @@
         <v>6</v>
       </c>
       <c r="K15" s="14">
-        <v>5</v>
-      </c>
-      <c r="L15" s="14">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="L15" s="32">
+        <v>34</v>
       </c>
       <c r="M15" s="14">
         <v>14</v>
@@ -1352,15 +1402,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C16" s="14">
         <v>6</v>
       </c>
       <c r="D16" s="14">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E16" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>0</v>
@@ -1375,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="L16" s="14">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M16" s="14">
         <v>14</v>
@@ -1408,9 +1458,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C17" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14">
         <v>30</v>
@@ -1427,20 +1477,20 @@
         <v>22</v>
       </c>
       <c r="I17" s="8">
-        <f>MODE(E12:E26)</f>
+        <f>MODE(E11:E26)</f>
         <v>11</v>
       </c>
       <c r="K17" s="14">
         <v>6</v>
       </c>
       <c r="L17" s="14">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M17" s="14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O17" s="15">
-        <f>MODE(K8:K22)</f>
+        <f>MODE(K8:K21)</f>
         <v>6</v>
       </c>
       <c r="P17" s="7">
@@ -1454,11 +1504,11 @@
       <c r="S17" s="14">
         <v>7</v>
       </c>
-      <c r="T17" s="14">
-        <v>26</v>
+      <c r="T17" s="32">
+        <v>25</v>
       </c>
       <c r="U17" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W17" s="15">
         <f>MODE(S8:S22)</f>
@@ -1470,44 +1520,44 @@
       </c>
       <c r="Y17" s="8">
         <f>MODE(U12:U26)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="14">
         <v>7</v>
       </c>
       <c r="D18" s="14">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E18" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K18" s="14">
         <v>6</v>
       </c>
       <c r="L18" s="14">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M18" s="14">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S18" s="14">
         <v>7</v>
       </c>
       <c r="T18" s="14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U18" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C19" s="14">
         <v>7</v>
       </c>
       <c r="D19" s="14">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="14">
         <v>11</v>
@@ -1519,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="L19" s="14">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="M19" s="14">
         <v>19</v>
@@ -1531,21 +1581,21 @@
         <v>7</v>
       </c>
       <c r="T19" s="14">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="U19" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C20" s="14">
         <v>7</v>
       </c>
       <c r="D20" s="14">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E20" s="14">
         <v>11</v>
@@ -1560,13 +1610,13 @@
         <v>2</v>
       </c>
       <c r="K20" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L20" s="14">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M20" s="14">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>0</v>
@@ -1581,7 +1631,7 @@
         <v>7</v>
       </c>
       <c r="T20" s="14">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="U20" s="14">
         <v>13</v>
@@ -1596,15 +1646,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C21" s="14">
         <v>7</v>
       </c>
-      <c r="D21" s="14">
-        <v>52</v>
-      </c>
-      <c r="E21" s="14">
-        <v>11</v>
+      <c r="D21" s="32">
+        <v>56</v>
+      </c>
+      <c r="E21" s="6">
+        <v>12</v>
       </c>
       <c r="G21" s="15">
         <f>_xlfn.QUARTILE.EXC(C8:C22,1)</f>
@@ -1615,20 +1665,20 @@
         <v>20</v>
       </c>
       <c r="I21" s="8">
-        <f>_xlfn.QUARTILE.EXC(E8:E22,1)</f>
+        <f>_xlfn.QUARTILE.EXC(E8:E21,1)</f>
         <v>7</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="6">
         <v>7</v>
       </c>
       <c r="L21" s="14">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M21" s="14">
         <v>32</v>
       </c>
       <c r="O21" s="15">
-        <f>_xlfn.QUARTILE.EXC(K8:K22,1)</f>
+        <f>_xlfn.QUARTILE.EXC(K8:K21,1)</f>
         <v>4</v>
       </c>
       <c r="P21" s="7">
@@ -1643,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="T21" s="14">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="U21" s="14">
         <v>14</v>
@@ -1661,21 +1711,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C22" s="6">
         <v>7</v>
       </c>
       <c r="D22" s="6">
         <v>91</v>
       </c>
-      <c r="E22" s="6">
-        <v>12</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="E22" s="32">
+        <v>15</v>
+      </c>
+      <c r="K22" s="32">
         <v>7</v>
       </c>
-      <c r="L22" s="6">
-        <v>192</v>
+      <c r="L22" s="14">
+        <v>113</v>
       </c>
       <c r="M22" s="6">
         <v>37</v>
@@ -1683,14 +1733,14 @@
       <c r="S22" s="6">
         <v>7</v>
       </c>
-      <c r="T22" s="6">
-        <v>94</v>
+      <c r="T22" s="14">
+        <v>67</v>
       </c>
       <c r="U22" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G24" s="16" t="s">
         <v>0</v>
       </c>
@@ -1730,26 +1780,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G25" s="15">
         <f>_xlfn.QUARTILE.EXC(C8:C22,3)</f>
         <v>7</v>
       </c>
       <c r="H25" s="7">
         <f>_xlfn.QUARTILE.EXC(D8:D22,3)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I25" s="8">
-        <f>_xlfn.QUARTILE.EXC(E8:E22,3)</f>
+        <f>_xlfn.QUARTILE.EXC(E8:E21,3)</f>
         <v>11</v>
       </c>
       <c r="O25" s="15">
-        <f>_xlfn.QUARTILE.EXC(K8:K22,3)</f>
+        <f>_xlfn.QUARTILE.EXC(K8:K21,3)</f>
         <v>6</v>
       </c>
       <c r="P25" s="7">
         <f>_xlfn.QUARTILE.EXC(L8:L22,3)</f>
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="8">
         <f>_xlfn.QUARTILE.EXC(M8:M22,3)</f>
@@ -1761,14 +1811,14 @@
       </c>
       <c r="X25" s="7">
         <f>_xlfn.QUARTILE.EXC(T8:T22,3)</f>
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="Y25" s="8">
         <f>_xlfn.QUARTILE.EXC(U8:U22,3)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H27" s="4" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G28" s="16" t="s">
         <v>0</v>
       </c>
@@ -1808,30 +1858,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G29" s="15">
         <f>_xlfn.VAR.S(C8:C22)</f>
-        <v>0.74285714285714122</v>
+        <v>0.78095238095237718</v>
       </c>
       <c r="H29" s="7">
         <f>_xlfn.VAR.S(D8:D22)</f>
-        <v>367.11428571428576</v>
+        <v>399.98095238095237</v>
       </c>
       <c r="I29" s="8">
-        <f>_xlfn.VAR.S(E8:E22)</f>
-        <v>3.5523809523809535</v>
+        <f>_xlfn.VAR.S(E8:E21)</f>
+        <v>3.1483516483516407</v>
       </c>
       <c r="O29" s="15">
-        <f>_xlfn.VAR.S(K8:K22)</f>
-        <v>1.0952380952380938</v>
+        <f>_xlfn.VAR.S(K8:K21)</f>
+        <v>1.1703296703296711</v>
       </c>
       <c r="P29" s="7">
         <f>_xlfn.VAR.S(L8:L22)</f>
-        <v>2258.695238095238</v>
+        <v>917.95238095238108</v>
       </c>
       <c r="Q29" s="8">
         <f>_xlfn.VAR.S(M8:M22)</f>
-        <v>82.666666666666643</v>
+        <v>66.923809523809524</v>
       </c>
       <c r="W29" s="15">
         <f>_xlfn.VAR.S(S8:S22)</f>
@@ -1839,14 +1889,14 @@
       </c>
       <c r="X29" s="7">
         <f>_xlfn.VAR.S(T8:T22)</f>
-        <v>512.66666666666663</v>
+        <v>235.35238095238088</v>
       </c>
       <c r="Y29" s="8">
         <f>_xlfn.VAR.S(U8:U22)</f>
-        <v>7.8857142857142923</v>
-      </c>
-    </row>
-    <row r="31" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.6952380952380963</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H31" s="4" t="s">
         <v>13</v>
       </c>
@@ -1857,7 +1907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G32" s="16" t="s">
         <v>0</v>
       </c>
@@ -1886,30 +1936,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G33" s="15">
         <f>_xlfn.STDEV.S(C8:C22)</f>
-        <v>0.86189160737133363</v>
+        <v>0.88371510168853462</v>
       </c>
       <c r="H33" s="7">
         <f>_xlfn.STDEV.S(D8:D22)</f>
-        <v>19.160226661349437</v>
+        <v>19.999523803854739</v>
       </c>
       <c r="I33" s="8">
-        <f>_xlfn.STDEV.S(E8:E22)</f>
-        <v>1.8847761013926703</v>
+        <f>_xlfn.STDEV.S(E8:E21)</f>
+        <v>1.7743595036946826</v>
       </c>
       <c r="O33" s="15">
-        <f>_xlfn.STDEV.S(K8:K22)</f>
-        <v>1.0465362369445665</v>
+        <f>_xlfn.STDEV.S(K8:K21)</f>
+        <v>1.0818177620697818</v>
       </c>
       <c r="P33" s="7">
         <f>_xlfn.STDEV.S(L8:L22)</f>
-        <v>47.525732378315205</v>
+        <v>30.297728973511877</v>
       </c>
       <c r="Q33" s="8">
         <f>_xlfn.STDEV.S(M8:M22)</f>
-        <v>9.0921211313239034</v>
+        <v>8.1806973739290427</v>
       </c>
       <c r="W33" s="15">
         <f>_xlfn.STDEV.S(S8:S22)</f>
@@ -1917,15 +1967,15 @@
       </c>
       <c r="X33" s="7">
         <f>_xlfn.STDEV.S(T8:T22)</f>
-        <v>22.642143596988927</v>
+        <v>15.341198810796401</v>
       </c>
       <c r="Y33" s="8">
         <f>_xlfn.STDEV.S(U8:U22)</f>
-        <v>2.808151400069856</v>
-      </c>
-    </row>
-    <row r="34" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.7740292167239509</v>
+      </c>
+    </row>
+    <row r="34" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="35" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G35" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +2004,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G36" s="16" t="s">
         <v>0</v>
       </c>
@@ -1983,30 +2033,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G37" s="15">
         <f>_xlfn.CONFIDENCE.NORM(I35,G33,B2)</f>
-        <v>0.36604483151522638</v>
+        <v>0.37531325602718674</v>
       </c>
       <c r="H37" s="7">
         <f>_xlfn.CONFIDENCE.NORM(I35,H33,B2)</f>
-        <v>8.1373363890124732</v>
+        <v>8.4937853653014397</v>
       </c>
       <c r="I37" s="8">
         <f>_xlfn.CONFIDENCE.NORM(I35,I33,B2)</f>
-        <v>0.80046324221946674</v>
+        <v>0.75356938160500642</v>
       </c>
       <c r="O37" s="15">
         <f>_xlfn.CONFIDENCE.NORM(Q35,O33,B2)</f>
-        <v>0.44446329126617057</v>
+        <v>0.45944733312202252</v>
       </c>
       <c r="P37" s="7">
         <f>_xlfn.CONFIDENCE.NORM(Q35,P33,B2)</f>
-        <v>20.184149088207882</v>
+        <v>12.867426718804376</v>
       </c>
       <c r="Q37" s="8">
         <f>_xlfn.CONFIDENCE.NORM(Q35,Q33,B2)</f>
-        <v>3.8614182098626859</v>
+        <v>3.4743371049287561</v>
       </c>
       <c r="W37" s="15">
         <f>_xlfn.CONFIDENCE.NORM(Y35,W33,B2)</f>
@@ -2014,15 +2064,15 @@
       </c>
       <c r="X37" s="7">
         <f>_xlfn.CONFIDENCE.NORM(Y35,X33,B2)</f>
-        <v>9.616104353749197</v>
+        <v>6.5153976276278724</v>
       </c>
       <c r="Y37" s="8">
         <f>_xlfn.CONFIDENCE.NORM(Y35,Y33,B2)</f>
-        <v>1.1926201593293362</v>
-      </c>
-    </row>
-    <row r="38" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.1781284892086847</v>
+      </c>
+    </row>
+    <row r="38" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="39" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H39" s="23" t="s">
         <v>14</v>
       </c>
@@ -2043,28 +2093,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G40" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H40" s="25">
         <f>G9-G37</f>
-        <v>5.8339551684847741</v>
+        <v>5.6913534106394801</v>
       </c>
       <c r="I40" s="26">
         <f>G9+G37</f>
-        <v>6.5660448315152262</v>
+        <v>6.4419799226938528</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>0</v>
       </c>
       <c r="P40" s="25">
         <f>O9-O37</f>
-        <v>4.8888700420671629</v>
+        <v>4.8976955240208344</v>
       </c>
       <c r="Q40" s="26">
         <f>O9+O37</f>
-        <v>5.7777966245995032</v>
+        <v>5.8165901902648791</v>
       </c>
       <c r="W40" s="10" t="s">
         <v>0</v>
@@ -2078,88 +2128,88 @@
         <v>6.7129135758603953</v>
       </c>
     </row>
-    <row r="41" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G41" s="16" t="s">
         <v>1</v>
       </c>
       <c r="H41" s="20">
         <f>H9-H37</f>
-        <v>24.462663610987526</v>
+        <v>26.03954796803189</v>
       </c>
       <c r="I41" s="21">
         <f>H9+H37</f>
-        <v>40.737336389012476</v>
+        <v>43.027118698634773</v>
       </c>
       <c r="O41" s="17" t="s">
         <v>1</v>
       </c>
       <c r="P41" s="20">
         <f>P9-P37</f>
-        <v>38.682517578458786</v>
+        <v>35.465906614528961</v>
       </c>
       <c r="Q41" s="21">
         <f>P9+P37</f>
-        <v>79.050815754874549</v>
+        <v>61.20076005213771</v>
       </c>
       <c r="W41" s="16" t="s">
         <v>1</v>
       </c>
       <c r="X41" s="20">
         <f>X9-X37</f>
-        <v>24.050562312917467</v>
+        <v>22.551269039038793</v>
       </c>
       <c r="Y41" s="21">
         <f>X9+X37</f>
-        <v>43.282771020415865</v>
-      </c>
-    </row>
-    <row r="42" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35.58206429429454</v>
+      </c>
+    </row>
+    <row r="42" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G42" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="2">
         <f>I9-I37</f>
-        <v>8.0662034244472007</v>
+        <v>8.3178591898235652</v>
       </c>
       <c r="I42" s="3">
         <f>I9+I37</f>
-        <v>9.6671299088861335</v>
+        <v>9.8249979530335771</v>
       </c>
       <c r="O42" s="12" t="s">
         <v>2</v>
       </c>
       <c r="P42" s="2">
         <f>Q9-Q37</f>
-        <v>13.471915123470646</v>
+        <v>12.592329561737911</v>
       </c>
       <c r="Q42" s="3">
         <f>Q9+Q37</f>
-        <v>21.19475154319602</v>
+        <v>19.541003771595424</v>
       </c>
       <c r="W42" s="9" t="s">
         <v>2</v>
       </c>
       <c r="X42" s="2">
         <f>Y9-Y37</f>
-        <v>9.6073798406706636</v>
+        <v>9.355204844124648</v>
       </c>
       <c r="Y42" s="3">
         <f>Y9+Y37</f>
-        <v>11.992620159329338</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11.711461822542018</v>
+      </c>
+    </row>
+    <row r="96" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="97" spans="5:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E97" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E98" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E99" s="17" t="s">
         <v>2</v>
       </c>
@@ -2172,16 +2222,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42080A57-7D68-4CEE-90A5-20E1804D2C69}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.26171875" customWidth="1"/>
+    <col min="2" max="2" width="9.89453125" customWidth="1"/>
+    <col min="3" max="3" width="10.26171875" customWidth="1"/>
+    <col min="4" max="6" width="10.20703125" customWidth="1"/>
+    <col min="7" max="7" width="10.41796875" customWidth="1"/>
+    <col min="8" max="8" width="9.7890625" customWidth="1"/>
+    <col min="9" max="9" width="10.1015625" customWidth="1"/>
+    <col min="10" max="10" width="9.9453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:10" ht="49.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
@@ -2210,7 +2270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="30">
         <v>4</v>
       </c>
@@ -2239,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="30">
         <v>3</v>
       </c>
@@ -2268,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="30">
         <v>4</v>
       </c>
@@ -2297,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="30">
         <v>4</v>
       </c>
@@ -2326,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="30">
         <v>4</v>
       </c>
@@ -2355,7 +2415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="30">
         <v>5</v>
       </c>
@@ -2384,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="30">
         <v>4</v>
       </c>
@@ -2413,7 +2473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="30">
         <v>4</v>
       </c>
@@ -2442,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="30">
         <v>5</v>
       </c>
@@ -2471,7 +2531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="30">
         <v>5</v>
       </c>
@@ -2500,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="30">
         <v>3</v>
       </c>
@@ -2529,15 +2589,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="30">
         <v>2</v>
@@ -2558,7 +2618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="30">
         <v>5</v>
       </c>
@@ -2587,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="30">
         <v>4</v>
       </c>
@@ -2616,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="30">
         <v>5</v>
       </c>
@@ -2645,7 +2705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="30">
         <v>4</v>
       </c>
@@ -2674,48 +2734,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="33">
         <f>AVERAGE(B3:B18)</f>
-        <v>4.25</v>
-      </c>
-      <c r="C19" s="4">
+        <v>4.1875</v>
+      </c>
+      <c r="C19" s="33">
         <f t="shared" ref="C19:J19" si="0">AVERAGE(C3:C18)</f>
-        <v>1.5625</v>
-      </c>
-      <c r="D19" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="33">
         <f t="shared" si="0"/>
-        <v>4.375</v>
-      </c>
-      <c r="E19" s="4">
+        <v>4.4375</v>
+      </c>
+      <c r="E19" s="33">
         <f t="shared" si="0"/>
         <v>1.625</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="33">
         <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="33">
         <f t="shared" si="0"/>
         <v>1.1875</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="33">
         <f t="shared" si="0"/>
         <v>4.6875</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="33">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="33">
         <f t="shared" si="0"/>
         <v>4.5625</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2830,7 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="2"/>
@@ -2797,7 +2857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2838,7 +2898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -2877,6 +2937,159 @@
       <c r="J23" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="35">
+        <f>_xlfn.STDEV.S(B3:B18)</f>
+        <v>0.65510813356778486</v>
+      </c>
+      <c r="C24" s="35">
+        <f t="shared" ref="C24:J24" si="5">_xlfn.STDEV.S(C3:C18)</f>
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="D24" s="35">
+        <f t="shared" si="5"/>
+        <v>0.72743842809317316</v>
+      </c>
+      <c r="E24" s="35">
+        <f t="shared" si="5"/>
+        <v>1.2041594578792296</v>
+      </c>
+      <c r="F24" s="35">
+        <f t="shared" si="5"/>
+        <v>1.0878112581387147</v>
+      </c>
+      <c r="G24" s="35">
+        <f t="shared" si="5"/>
+        <v>0.40311288741492751</v>
+      </c>
+      <c r="H24" s="35">
+        <f t="shared" si="5"/>
+        <v>0.47871355387816905</v>
+      </c>
+      <c r="I24" s="35">
+        <f t="shared" si="5"/>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="J24" s="35">
+        <f t="shared" si="5"/>
+        <v>0.72743842809317316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="36">
+        <f>B19</f>
+        <v>4.1875</v>
+      </c>
+      <c r="C28" s="36">
+        <f t="shared" ref="C28:J28" si="6">C19</f>
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="36">
+        <f t="shared" si="6"/>
+        <v>4.4375</v>
+      </c>
+      <c r="E28" s="36">
+        <f t="shared" si="6"/>
+        <v>1.625</v>
+      </c>
+      <c r="F28" s="36">
+        <f t="shared" si="6"/>
+        <v>4.125</v>
+      </c>
+      <c r="G28" s="36">
+        <f>G19</f>
+        <v>1.1875</v>
+      </c>
+      <c r="H28" s="36">
+        <f>H19</f>
+        <v>4.6875</v>
+      </c>
+      <c r="I28" s="36">
+        <f>I19</f>
+        <v>1.25</v>
+      </c>
+      <c r="J28" s="36">
+        <f>J19</f>
+        <v>4.5625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="36">
+        <f>B24</f>
+        <v>0.65510813356778486</v>
+      </c>
+      <c r="C29" s="36">
+        <f t="shared" ref="C29:J29" si="7">C24</f>
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="D29" s="36">
+        <f t="shared" si="7"/>
+        <v>0.72743842809317316</v>
+      </c>
+      <c r="E29" s="36">
+        <f t="shared" si="7"/>
+        <v>1.2041594578792296</v>
+      </c>
+      <c r="F29" s="36">
+        <f t="shared" si="7"/>
+        <v>1.0878112581387147</v>
+      </c>
+      <c r="G29" s="36">
+        <f>G24</f>
+        <v>0.40311288741492751</v>
+      </c>
+      <c r="H29" s="36">
+        <f>H24</f>
+        <v>0.47871355387816905</v>
+      </c>
+      <c r="I29" s="36">
+        <f>I24</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="J29" s="36">
+        <f>J24</f>
+        <v>0.72743842809317316</v>
       </c>
     </row>
   </sheetData>

--- a/Testes_Utilizadores.xlsx
+++ b/Testes_Utilizadores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Rafael Soares\Documents\GitHub\ProjectoIPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joana Coutinho\Documents\GitHub\ProjectoIPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF30459C-C177-449C-A1BF-1FB22B9B7EBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F85E8BE-F15D-4C87-A58D-F995A409AA13}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{AC120E0E-3964-43BC-A49B-91F251ED8DC5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{AC120E0E-3964-43BC-A49B-91F251ED8DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -935,23 +935,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9512A970-3B44-470C-A944-60CB0B11CC1B}">
   <dimension ref="B1:AB99"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -965,24 +965,24 @@
       <c r="AA3" s="19"/>
       <c r="AB3" s="19"/>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="J4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="J5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
-    <row r="6" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
     </row>
-    <row r="7" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
     </row>
-    <row r="8" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="14">
         <v>4</v>
       </c>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14">
         <v>5</v>
       </c>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C10" s="14">
         <v>5</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14">
         <v>6</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14">
         <v>6</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14">
         <v>6</v>
       </c>
@@ -1302,8 +1302,8 @@
         <v>12</v>
       </c>
       <c r="O13" s="15">
-        <f>MEDIAN(K8:K21)</f>
-        <v>5.5</v>
+        <f>MEDIAN(K8:K22)</f>
+        <v>6</v>
       </c>
       <c r="P13" s="7">
         <f>MEDIAN(L8:L22)</f>
@@ -1335,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C14" s="14">
         <v>6</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14">
         <v>6</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14">
         <v>6</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14">
         <v>6</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>7</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14">
         <v>7</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14">
         <v>7</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14">
         <v>7</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6">
         <v>7</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G24" s="16" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="15">
         <f>_xlfn.QUARTILE.EXC(C8:C22,3)</f>
         <v>7</v>
@@ -1818,7 +1818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H27" s="4" t="s">
         <v>12</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" s="16" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G29" s="15">
         <f>_xlfn.VAR.S(C8:C22)</f>
         <v>0.78095238095237718</v>
@@ -1896,7 +1896,7 @@
         <v>7.6952380952380963</v>
       </c>
     </row>
-    <row r="31" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H31" s="4" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="3:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G32" s="16" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G33" s="15">
         <f>_xlfn.STDEV.S(C8:C22)</f>
         <v>0.88371510168853462</v>
@@ -1974,8 +1974,8 @@
         <v>2.7740292167239509</v>
       </c>
     </row>
-    <row r="34" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="35" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
         <v>16</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G36" s="16" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G37" s="15">
         <f>_xlfn.CONFIDENCE.NORM(I35,G33,B2)</f>
         <v>0.37531325602718674</v>
@@ -2071,8 +2071,8 @@
         <v>1.1781284892086847</v>
       </c>
     </row>
-    <row r="38" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="39" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H39" s="23" t="s">
         <v>14</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G40" s="16" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>6.7129135758603953</v>
       </c>
     </row>
-    <row r="41" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G41" s="16" t="s">
         <v>1</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>35.58206429429454</v>
       </c>
     </row>
-    <row r="42" spans="7:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G42" s="9" t="s">
         <v>2</v>
       </c>
@@ -2198,18 +2198,18 @@
         <v>11.711461822542018</v>
       </c>
     </row>
-    <row r="96" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="97" spans="5:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="96" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E97" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="5:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E98" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E99" s="17" t="s">
         <v>2</v>
       </c>
@@ -2224,24 +2224,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42080A57-7D68-4CEE-90A5-20E1804D2C69}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26171875" customWidth="1"/>
-    <col min="2" max="2" width="9.89453125" customWidth="1"/>
-    <col min="3" max="3" width="10.26171875" customWidth="1"/>
-    <col min="4" max="6" width="10.20703125" customWidth="1"/>
-    <col min="7" max="7" width="10.41796875" customWidth="1"/>
-    <col min="8" max="8" width="9.7890625" customWidth="1"/>
-    <col min="9" max="9" width="10.1015625" customWidth="1"/>
-    <col min="10" max="10" width="9.9453125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:10" ht="49.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="30">
         <v>4</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30">
         <v>3</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30">
         <v>4</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30">
         <v>4</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="30">
         <v>4</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="30">
         <v>5</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30">
         <v>4</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30">
         <v>4</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30">
         <v>5</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30">
         <v>5</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="30">
         <v>3</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="30">
         <v>4</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30">
         <v>5</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30">
         <v>4</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="30">
         <v>5</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30">
         <v>4</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>4.5625</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0.72743842809317316</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="34" t="s">
         <v>28</v>
@@ -3010,7 +3010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>3</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>4.1875</v>
       </c>
       <c r="C28" s="36">
-        <f t="shared" ref="C28:J28" si="6">C19</f>
+        <f t="shared" ref="C28:F28" si="6">C19</f>
         <v>1.5</v>
       </c>
       <c r="D28" s="36">
@@ -3051,7 +3051,7 @@
         <v>4.5625</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>0.65510813356778486</v>
       </c>
       <c r="C29" s="36">
-        <f t="shared" ref="C29:J29" si="7">C24</f>
+        <f t="shared" ref="C29:F29" si="7">C24</f>
         <v>0.81649658092772603</v>
       </c>
       <c r="D29" s="36">
